--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H2">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N2">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O2">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P2">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q2">
-        <v>244.8747565238057</v>
+        <v>169.0130440458057</v>
       </c>
       <c r="R2">
-        <v>2203.872808714251</v>
+        <v>1521.117396412251</v>
       </c>
       <c r="S2">
-        <v>0.4518907475383086</v>
+        <v>0.4054293806182511</v>
       </c>
       <c r="T2">
-        <v>0.4518907475383086</v>
+        <v>0.4054293806182511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H3">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N3">
         <v>14.595625</v>
       </c>
       <c r="O3">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P3">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q3">
-        <v>50.17058458881944</v>
+        <v>43.01557892729167</v>
       </c>
       <c r="R3">
-        <v>451.535261299375</v>
+        <v>387.1402103456251</v>
       </c>
       <c r="S3">
-        <v>0.09258456566171828</v>
+        <v>0.1031859973878753</v>
       </c>
       <c r="T3">
-        <v>0.09258456566171828</v>
+        <v>0.1031859973878753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H4">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N4">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O4">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P4">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q4">
-        <v>48.15532933311344</v>
+        <v>34.63588406576766</v>
       </c>
       <c r="R4">
-        <v>433.397963998021</v>
+        <v>311.722956591909</v>
       </c>
       <c r="S4">
-        <v>0.08886562289722406</v>
+        <v>0.08308474119988032</v>
       </c>
       <c r="T4">
-        <v>0.08886562289722406</v>
+        <v>0.08308474119988032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N5">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O5">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P5">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q5">
-        <v>97.44154774472199</v>
+        <v>78.44111700391267</v>
       </c>
       <c r="R5">
-        <v>876.9739297024979</v>
+        <v>705.9700530352138</v>
       </c>
       <c r="S5">
-        <v>0.1798181832898383</v>
+        <v>0.1881649647898245</v>
       </c>
       <c r="T5">
-        <v>0.1798181832898383</v>
+        <v>0.1881649647898245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N6">
         <v>14.595625</v>
       </c>
       <c r="O6">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P6">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q6">
         <v>19.96408075291667</v>
@@ -818,10 +818,10 @@
         <v>179.67672677625</v>
       </c>
       <c r="S6">
-        <v>0.03684162264587543</v>
+        <v>0.04788994210455214</v>
       </c>
       <c r="T6">
-        <v>0.03684162264587542</v>
+        <v>0.04788994210455213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N7">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O7">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P7">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q7">
-        <v>19.16216227832867</v>
+        <v>16.07495711278067</v>
       </c>
       <c r="R7">
-        <v>172.459460504958</v>
+        <v>144.674614015026</v>
       </c>
       <c r="S7">
-        <v>0.03536176598735079</v>
+        <v>0.03856069182407789</v>
       </c>
       <c r="T7">
-        <v>0.03536176598735079</v>
+        <v>0.03856069182407789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H8">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N8">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O8">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P8">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q8">
-        <v>44.323406773622</v>
+        <v>38.18553811512489</v>
       </c>
       <c r="R8">
-        <v>398.910660962598</v>
+        <v>343.669843036124</v>
       </c>
       <c r="S8">
-        <v>0.08179421065980483</v>
+        <v>0.09159967003726602</v>
       </c>
       <c r="T8">
-        <v>0.08179421065980481</v>
+        <v>0.09159967003726602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H9">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N9">
         <v>14.595625</v>
       </c>
       <c r="O9">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P9">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q9">
-        <v>9.081096232083334</v>
+        <v>9.718616914722224</v>
       </c>
       <c r="R9">
-        <v>81.72986608875</v>
+        <v>87.46755223250001</v>
       </c>
       <c r="S9">
-        <v>0.01675821314960456</v>
+        <v>0.02331306946423626</v>
       </c>
       <c r="T9">
-        <v>0.01675821314960456</v>
+        <v>0.02331306946423626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H10">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N10">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O10">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P10">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q10">
-        <v>8.716326176895333</v>
+        <v>7.825371577746222</v>
       </c>
       <c r="R10">
-        <v>78.446935592058</v>
+        <v>70.42834419971601</v>
       </c>
       <c r="S10">
-        <v>0.01608506817027522</v>
+        <v>0.01877154257403632</v>
       </c>
       <c r="T10">
-        <v>0.01608506817027521</v>
+        <v>0.01877154257403632</v>
       </c>
     </row>
   </sheetData>
